--- a/Data/Log/Totalling.xlsx
+++ b/Data/Log/Totalling.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650E085B-5E3B-4A79-B07E-843CF0423E8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5A1A4-D6CC-4ECF-868D-267995AB416B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>合計</t>
     <rPh sb="0" eb="2">
@@ -164,6 +164,35 @@
     <t>途中</t>
     <rPh sb="0" eb="2">
       <t>トチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中離脱を除く合計</t>
+    <rPh sb="0" eb="2">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リダツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>途中離脱を除く平均</t>
+    <rPh sb="0" eb="4">
+      <t>トチュウリダツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -495,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -514,13 +543,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A957CF1-7C81-4F68-BC2D-761841DBF9E3}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
@@ -577,61 +606,61 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <f>SUM(Data!B1:B1000)</f>
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <f>SUM(Data!C1:C1000)</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>SUM(Data!D1:D1000)</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>SUM(Data!E1:E1000)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>SUM(Data!F1:F1000)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>SUM(Data!G1:G1000)</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>SUM(Data!H1:H1000)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>SUM(Data!I1:I1000)</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>SUM(Data!J1:J1000)</f>
-        <v>0</v>
+      <c r="B2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J2" t="e">
+        <f>SUM(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="L2" t="e">
         <f>N2 / M2</f>
-        <v>#DIV/0!</v>
+        <v>#REF!</v>
       </c>
       <c r="M2">
-        <f>COUNTA(Data!A1:A1000)</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>COUNTIF(Data!A1:A1000,N5)</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>COUNTIF(Data!A1:A1000,N6)</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>COUNTIF(Data!A1:A1000,N7)</f>
-        <v>0</v>
+        <f>COUNTA(Data!#REF!)</f>
+        <v>1</v>
+      </c>
+      <c r="N2" t="e">
+        <f>COUNTIF(Data!#REF!,N5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O2" t="e">
+        <f>COUNTIF(Data!#REF!,N6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P2" t="e">
+        <f>COUNTIF(Data!#REF!,N7)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -639,43 +668,123 @@
         <v>1</v>
       </c>
       <c r="B3" t="e">
-        <f>AVERAGE(Data!B1:B1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="C3" t="e">
-        <f>AVERAGE(Data!C1:C1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="D3" t="e">
-        <f>AVERAGE(Data!D1:D1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="E3" t="e">
-        <f>AVERAGE(Data!E1:E1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="F3" t="e">
-        <f>AVERAGE(Data!F1:F1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="G3" t="e">
-        <f>AVERAGE(Data!G1:G1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="H3" t="e">
-        <f>AVERAGE(Data!H1:H1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="I3" t="e">
-        <f>AVERAGE(Data!I1:I1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="J3" t="e">
-        <f>AVERAGE(Data!J1:J1001)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J4" t="e">
+        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J5" t="e">
+        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
+        <v>#REF!</v>
+      </c>
       <c r="M5" t="s">
         <v>16</v>
       </c>

--- a/Data/Log/Totalling.xlsx
+++ b/Data/Log/Totalling.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5A1A4-D6CC-4ECF-868D-267995AB416B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B440A-C540-40F8-B16C-4B1BDC29747B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -543,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A957CF1-7C81-4F68-BC2D-761841DBF9E3}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -606,61 +604,61 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J2" t="e">
-        <f>SUM(Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L2" t="e">
+      <c r="B2">
+        <f>SUM(Data!B$2:B$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>SUM(Data!C$2:C$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>SUM(Data!D$2:D$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>SUM(Data!E$2:E$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>SUM(Data!F$2:F$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>SUM(Data!G$2:G$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(Data!H$2:H$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>SUM(Data!I$2:I$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>SUM(Data!J$2:J$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
         <f>N2 / M2</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <f>COUNTA(Data!#REF!)</f>
         <v>1</v>
       </c>
-      <c r="N2" t="e">
-        <f>COUNTIF(Data!#REF!,N5)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O2" t="e">
-        <f>COUNTIF(Data!#REF!,N6)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P2" t="e">
-        <f>COUNTIF(Data!#REF!,N7)</f>
-        <v>#REF!</v>
+      <c r="N2">
+        <f>COUNTIF(Data!$A$1:$A$1000,N5)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(Data!$A$1:$A$1000,N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>COUNTIF(Data!$A$1:$A$1000,N7)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -668,81 +666,81 @@
         <v>1</v>
       </c>
       <c r="B3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!B$1:B$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!C$1:C$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!D$1:D$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!E$1:E$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!F$1:F$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!G$1:G$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!H$1:H$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!I$1:I$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J3" t="e">
-        <f>AVERAGE(Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGE(Data!J$1:J$1000)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J4" t="e">
-        <f>SUMIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+      <c r="B4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!B$1:B$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!C$1:C$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!D$1:D$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!E$1:E$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!F$1:F$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!G$1:G$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!H$1:H$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!I$1:I$1000)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!J$1:J$1000)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -750,40 +748,40 @@
         <v>20</v>
       </c>
       <c r="B5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!B$1:B$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="C5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!C$1:C$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="D5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!D$1:D$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="E5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!E$1:E$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!F$1:F$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="G5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!G$1:G$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="H5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!H$1:H$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="I5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!I$1:I$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="J5" t="e">
-        <f>AVERAGEIF(Data!#REF!,"&lt;&gt;-1",Data!#REF!)</f>
-        <v>#REF!</v>
+        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!J$1:J$1000)</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="M5" t="s">
         <v>16</v>

--- a/Data/Log/Totalling.xlsx
+++ b/Data/Log/Totalling.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0B440A-C540-40F8-B16C-4B1BDC29747B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2F3456-FCAB-4A48-97A7-704E3F5FEB46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -640,13 +640,13 @@
         <f>SUM(Data!J$2:J$1000)</f>
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="e">
         <f>N2 / M2</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M2">
-        <f>COUNTA(Data!#REF!)</f>
-        <v>1</v>
+        <f>COUNTA(Data!$A$1:$A$1000)</f>
+        <v>0</v>
       </c>
       <c r="N2">
         <f>COUNTIF(Data!$A$1:$A$1000,N5)</f>
@@ -707,39 +707,39 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!B$1:B$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!B$1:B$1000)</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!C$1:C$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!C$1:C$1000)</f>
         <v>0</v>
       </c>
       <c r="D4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!D$1:D$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!D$1:D$1000)</f>
         <v>0</v>
       </c>
       <c r="E4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!E$1:E$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!E$1:E$1000)</f>
         <v>0</v>
       </c>
       <c r="F4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!F$1:F$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!F$1:F$1000)</f>
         <v>0</v>
       </c>
       <c r="G4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!G$1:G$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!G$1:G$1000)</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!H$1:H$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!H$1:H$1000)</f>
         <v>0</v>
       </c>
       <c r="I4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!I$1:I$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!I$1:I$1000)</f>
         <v>0</v>
       </c>
       <c r="J4">
-        <f>SUMIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!J$1:J$1000)</f>
+        <f>SUMIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!J$1:J$1000)</f>
         <v>0</v>
       </c>
     </row>
@@ -748,39 +748,39 @@
         <v>20</v>
       </c>
       <c r="B5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!B$1:B$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!B$1:B$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!C$1:C$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!C$1:C$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!D$1:D$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!D$1:D$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!E$1:E$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!E$1:E$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!F$1:F$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!F$1:F$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!G$1:G$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!G$1:G$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!H$1:H$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!H$1:H$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!I$1:I$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!I$1:I$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J5" t="e">
-        <f>AVERAGEIF(Data!$A$1:$A$1000,"&lt;&gt;-1",Data!J$1:J$1000)</f>
+        <f>AVERAGEIF(Data!$A$2:$A$1000,"&lt;&gt;-1",Data!J$1:J$1000)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M5" t="s">
